--- a/medicine/Psychotrope/Lauzet_B/Lauzet_B.xlsx
+++ b/medicine/Psychotrope/Lauzet_B/Lauzet_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lauzet B est un cépage originaire du sud-ouest de la France. 
@@ -512,9 +524,11 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient à la famille des Cotoïdes avec un caractère des cépages pyrénéens, le long lobe médian. Il n'est présent que dans le vignoble béarnais, dans les AOC Jurançon et Béarn. Il a bien failli disparaître, passant de 19 hectares en 1958 à 1 seul ha en 1979. Fort heureusement pour la diversité génétique, quelques plantations ont eu lieu pour représenter 4 hectares en 1994[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient à la famille des Cotoïdes avec un caractère des cépages pyrénéens, le long lobe médian. Il n'est présent que dans le vignoble béarnais, dans les AOC Jurançon et Béarn. Il a bien failli disparaître, passant de 19 hectares en 1958 à 1 seul ha en 1979. Fort heureusement pour la diversité génétique, quelques plantations ont eu lieu pour représenter 4 hectares en 1994.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie et synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauzet a la même racine que lauze, l'ardoise utilisée pour la couverture des toits. Le synonyme saoubetou a la même origine que servadou, de l'occitan servar, conserver, probablement grâce à sa faible sensibilité à la pourriture grise.
 </t>
@@ -574,7 +590,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bourgeonnement cotonneux blanc
 Jeunes feuilles duveteuses à dessous cotonneux jaunâtre
@@ -607,7 +625,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>culturales: Cépage vigoureux conduit en taille longue.
 Sensibilité: Cépage un peu sensible à la pourriture grise.
@@ -639,7 +659,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois clones, les numéros 73, 86 et 896, ont été agréés mais ils sont très peu multipliés. Une collection issue de prospection dans le vignoble de Jurançon préserve la variabilité génétique.
 </t>
